--- a/backend/data1/final_data_26_11.xlsx
+++ b/backend/data1/final_data_26_11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zahid bhai\production\backend\data1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Awais Qureshi\Desktop\zahid bhai data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4D292D-BA79-4542-97AF-13CF9BD68803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B8FA5A-736D-491A-A9CE-64552B9EDD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="401">
   <si>
     <t>Item_No</t>
   </si>
@@ -60,20 +60,1364 @@
     <t>category</t>
   </si>
   <si>
+    <t>Running items</t>
+  </si>
+  <si>
     <t>VAT</t>
   </si>
   <si>
     <t>Piece / حبة</t>
   </si>
   <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>ZADI-1492</t>
+  </si>
+  <si>
+    <t>METAL TERMINAL STRAIGHT SHAPED (SILVER COLOUR) (100P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1493</t>
+  </si>
+  <si>
+    <t>METAL TERMINAL FLAG SHAPED (SILVER COLOUR) (100P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1494</t>
+  </si>
+  <si>
+    <t>METAL TERMINAL STRAIGHT SHAPED (GOLDEN COLOR) (100P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1495</t>
+  </si>
+  <si>
+    <t>METAL TERMINAL FLAG SHAPED (GOLDEN COLOR) (100P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1496</t>
+  </si>
+  <si>
+    <t>INNER SPRING BENDER 1/2* L-105CM (50P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1497</t>
+  </si>
+  <si>
+    <t>INNER SPRING BENDER 5/8* L-105CM (40P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1498</t>
+  </si>
+  <si>
+    <t>INNER SPRING BENDER 3/4* L-105CM (10P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1499</t>
+  </si>
+  <si>
+    <t>SPRING TUBE BENDER 1/2 (L-350MM)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1500</t>
+  </si>
+  <si>
+    <t>SPRING TUBE BENDER 5/8 (L-350MM)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1501</t>
+  </si>
+  <si>
+    <t>SPRING TUBE BENDER 3/4 (L-50MM)
+M3</t>
+  </si>
+  <si>
+    <t>ThermoStat &amp; Heater</t>
+  </si>
+  <si>
+    <t>ZADI-1502</t>
+  </si>
+  <si>
+    <t>THERMOSTAT CLASSIC PFA-606S-2 (2PIN) COLD 125/250V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1503</t>
+  </si>
+  <si>
+    <t>THERMOSTAT GIBSON YWTB-604G-2B(2PIN) COLD 125/250V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1504</t>
+  </si>
+  <si>
+    <t>THERMOSTAT K50-P1125 (FREEZER) 125/250V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1505</t>
+  </si>
+  <si>
+    <t>THERMOSTAT K50-P1127 (NORMAL) 125/250V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1506</t>
+  </si>
+  <si>
+    <t>THERMOSTAT VT9/K59-L1102 (FREEZER) 125/250V 20FLA
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1507</t>
+  </si>
+  <si>
+    <t>REF THERMOSTAT V5S/K54 P1102 (FREEZER) 125/250V 20FLA
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1508</t>
+  </si>
+  <si>
+    <t>REF KELVINATOR THERMOSTAT 3ART5VG10 125/250V 12/6FLA
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1509</t>
+  </si>
+  <si>
+    <t>THERMOSTAT PFN-C1745-03EC (FREEZER) 125/250V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1510</t>
+  </si>
+  <si>
+    <t>THERMOSTAT CAR PFN-150M(WP1-L) COLD 125/250V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1511</t>
+  </si>
+  <si>
+    <t>THERMOSTAT CAR WDF16A-L (HEAT &amp; COLD) 125/250V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1512</t>
+  </si>
+  <si>
+    <t>THERMOSTAT 3ART5VN11 (FREEZER) 120/240V 12/6FLA
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1513</t>
+  </si>
+  <si>
+    <t>THERMOSTAT A2000 (REFRIGERATOR) 125/250V 20FLA
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1514</t>
+  </si>
+  <si>
+    <t>THERMOSTAT WPF35.6W (FREEZER) 125/250V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1515</t>
+  </si>
+  <si>
+    <t>THERMOSTAT WPF8.9W (NORMAL) 125/250V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1516</t>
+  </si>
+  <si>
+    <t>FLARE NUT 1/4 (1500 P) NUT-006
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1517</t>
+  </si>
+  <si>
+    <t>FLAIR NUT 5/8 (400 P) NUT-009
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1518</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 420MM 220V
+HK ALUMINIUM HEATER 420MM 220V</t>
+  </si>
+  <si>
+    <t>ZADI-1519</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 450MM 220V
+HK ALUMINIUM HEATER 450MM 220V</t>
+  </si>
+  <si>
+    <t>ZADI-1520</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 500MM 220V
+HK ALUMINIUM HEATER 500MM 220V</t>
+  </si>
+  <si>
+    <t>ZADI-1521</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 520MM 220V
+HK ALUMINIUM HEATER 520MM 220V</t>
+  </si>
+  <si>
+    <t>ZADI-1522</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 540MM 220V
+HK ALUMINIUM HEATER 540MM 220V</t>
+  </si>
+  <si>
+    <t>ZADI-1523</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 560MM 220V
+HK ALUMINIUM HEATER 560MM 220V</t>
+  </si>
+  <si>
+    <t>ZADI-1524</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 580MM 220V
+HK ALUMINIUM HEATER 580MM 220V</t>
+  </si>
+  <si>
+    <t>ZADI-1525</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 600MM 220V
+HK ALUMINIUM HEATER 600MM 220V</t>
+  </si>
+  <si>
+    <t>ZADI-1526</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 620MM 220V
+HK ALUMINIUM HEATER 620MM 220V</t>
+  </si>
+  <si>
+    <t>ZADI-1527</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 640MM 220V
+HK ALUMINIUM HEATER 640MM 220V</t>
+  </si>
+  <si>
+    <t>ZADI-1528</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 660MM 220V
+HK ALUMINIUM HEATER 660MM 220V</t>
+  </si>
+  <si>
+    <t>ZADI-1529</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 360MM 127/220V
+HK ALUMINIUM HEATER 360MM 127/220V</t>
+  </si>
+  <si>
+    <t>ZADI-1530</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 420MM 127/220V
+HK ALUMINIUM HEATER 420MM 127/220V</t>
+  </si>
+  <si>
+    <t>ZADI-1531</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 450MM 127/220V
+HK ALUMINIUM HEATER 450MM 127/220V</t>
+  </si>
+  <si>
+    <t>ZADI-1532</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 500MM 127/220V
+HK ALUMINIUM HEATER 500MM 127/220V</t>
+  </si>
+  <si>
+    <t>ZADI-1533</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 520MM 127/220V
+HK ALUMINIUM HEATER 520MM 127/220V</t>
+  </si>
+  <si>
+    <t>ZADI-1534</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 540MM 127/220V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1535</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 560MM 127/220V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1536</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 580MM 127/220V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1537</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 600MM 127/220V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1538</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 620MM 127/220V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1539</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 640MM 127/220V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1540</t>
+  </si>
+  <si>
+    <t>HK ALUMINIUM HEATER 660MM 127/220V
+M3</t>
+  </si>
+  <si>
+    <t>Fan Moter</t>
+  </si>
+  <si>
+    <t>ZADI-1541</t>
+  </si>
+  <si>
+    <t>AXEL FAN MOTOR 38MM 220V (054) (40P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1542</t>
+  </si>
+  <si>
+    <t>REFRIGERATOR MOTOR DC 12V 4.5W WITH SENSOR 4W
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1543</t>
+  </si>
+  <si>
+    <t>REFRIGERATOR MOTOR DC12V 3.3W WITH CLIP 4/Wire
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1544</t>
+  </si>
+  <si>
+    <t>REFRIGERATOR MOTOR WHITE SMALL DC12V 2.5W
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1545</t>
+  </si>
+  <si>
+    <t>REFRIGERATOR MOTOR DC 12V 3.3W LONG SHAFT S BODY
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1546</t>
+  </si>
+  <si>
+    <t>REF. FAN MOTOR ZYD-2J-6-H 220V 5.5W (RM-005)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1547</t>
+  </si>
+  <si>
+    <t>REF. FAN MOTOR DGW10399715 220V (RM-006)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1548</t>
+  </si>
+  <si>
+    <t>REF. FAN MOTOR F61-10 (SHORT SHAFT) 220V
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1549</t>
+  </si>
+  <si>
+    <t>REFRIGERATOR MOTOR 100V-240V 3W WITH CLIP (48P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1550</t>
+  </si>
+  <si>
+    <t>REF. DC MOTOR LONG SHAFT, LIGHT GREY COLOR 13W (RM-009)
+REF. DC MOTOR LONG SHAFT, LIGHT GREY COLOR 13W (RM-009)</t>
+  </si>
+  <si>
+    <t>ZADI-1551</t>
+  </si>
+  <si>
+    <t>REF. DC MOTOR SHORT SHAFT, LIGHT GREY COLOR 13W (RM-010)
+REF. DC MOTOR SHORT SHAFT, LIGHT GREY COLOR 13W (RM-010)</t>
+  </si>
+  <si>
+    <t>ZADI-1552</t>
+  </si>
+  <si>
+    <t>REFRIGERATOR MOTOR DC13.2V 2W V/CLIP
+REFRIGERATOR MOTOR DC13.2V 2W V/CLIP</t>
+  </si>
+  <si>
+    <t>ZADI-1553</t>
+  </si>
+  <si>
+    <t>REF. DC MOTOR ZW-58 12V 3W
+REF. DC MOTOR ZW-58 12V 3W</t>
+  </si>
+  <si>
+    <t>ZADI-1554</t>
+  </si>
+  <si>
+    <t>REFRIGERATOR MOTOR DC13.2V 2W B/K CLIP 3 WIRE
+REFRIGERATOR MOTOR DC13.2V 2W B/K CLIP 3 WIRE</t>
+  </si>
+  <si>
+    <t>ZADI-1555</t>
+  </si>
+  <si>
+    <t>REF FAN MOTOR MSP96313/2T-CCW
+REF FAN MOTOR MSP96313/2T-CCW</t>
+  </si>
+  <si>
+    <t>ZADI-1556</t>
+  </si>
+  <si>
+    <t>REF FAN MOTOR DA31-00002E DC 12V
+REF FAN MOTOR DA31-00002E DC 12V</t>
+  </si>
+  <si>
+    <t>ZADI-1557</t>
+  </si>
+  <si>
+    <t>REF FAN MOTOR 9.75V DC 3.25W (WR60X10185)
+REF FAN MOTOR 9.75V DC 3.25W (WR60X10185)</t>
+  </si>
+  <si>
+    <t>ZADI-1558</t>
+  </si>
+  <si>
+    <t>REF MOTOR 5.5W 220-240V, 50/60HZ
+REF MOTOR 5.5W 220-240V, 50/60HZ</t>
+  </si>
+  <si>
+    <t>ZADI-1559</t>
+  </si>
+  <si>
+    <t>109 REF MOTOR SAMSUNG BIG (220V)
+109 REF MOTOR SAMSUNG BIG (220V)</t>
+  </si>
+  <si>
+    <t>ZADI-1560</t>
+  </si>
+  <si>
+    <t>110 REF MOTOR SAMSUNG S.SHAFT 3210NPSA 220V
+110 REF MOTOR SAMSUNG S.SHAFT 3210NPSA 220V</t>
+  </si>
+  <si>
+    <t>ZADI-1561</t>
+  </si>
+  <si>
+    <t>112 REF MOTOR HASS BLACK F61-10/220 V (012)
+112 REF MOTOR HASS BLACK F61-10/220 V (012)</t>
+  </si>
+  <si>
+    <t>ZADI-1562</t>
+  </si>
+  <si>
+    <t>113 REF MOTOR SHARP YZF-3-6.5-R 220 V
+113 REF MOTOR SHARP YZF-3-6.5-R 220 V</t>
+  </si>
+  <si>
+    <t>ZADI-1563</t>
+  </si>
+  <si>
+    <t>114 REF MOTOR DAEWOO BIG SHAFT 220V (014)
+114 REF MOTOR DAEWOO BIG SHAFT 220V (014)</t>
+  </si>
+  <si>
+    <t>ZADI-1564</t>
+  </si>
+  <si>
+    <t>115 REF MOTOR DAEWOO S.SHSFT 220 V
+115 REF MOTOR DAEWOO S.SHSFT 220 V</t>
+  </si>
+  <si>
+    <t>ZADI-1565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M116 REF MOTOR KELVINATOR Y165207 220V (KERM-016)</t>
+  </si>
+  <si>
+    <t>ZADI-1566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 117 REF MOTOR SUPCO SM672 /220 V (40P)</t>
+  </si>
+  <si>
+    <t>ZADI-1567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 118 REF MOTOR GIBSON 20009075A /220V</t>
+  </si>
+  <si>
+    <t>ZADI-1568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 120 REF MOTOR KLV BRAKET S6111CDM01/ 220V (KERM-020) (36P)</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>ZADI-1569</t>
+  </si>
+  <si>
+    <t>RELAY 1 PIN (1000 P) RY-001
+RELAY 1 PIN (1000 P) RY-001</t>
+  </si>
+  <si>
+    <t>ZADI-1570</t>
+  </si>
+  <si>
+    <t>RELAY 2 PIN (1000 P) RY-002
+RELAY 2 PIN (1000 P) RY-002</t>
+  </si>
+  <si>
+    <t>ZADI-1571</t>
+  </si>
+  <si>
+    <t>RELAY 3 PIN (1000 P) RY-003
+RELAY 3 PIN (1000 P) RY-003</t>
+  </si>
+  <si>
+    <t>ZADI-1572</t>
+  </si>
+  <si>
+    <t>RELAY 4 PIN (1000 P) RY-004
+RELAY 4 PIN (1000 P) RY-004</t>
+  </si>
+  <si>
+    <t>ZADI-1573</t>
+  </si>
+  <si>
+    <t>RELAY DANFOSS-1 6005 220V 1/3 HP
+RELAY DANFOSS-1 6005 220V 1/3 HP</t>
+  </si>
+  <si>
+    <t>ZADI-1574</t>
+  </si>
+  <si>
+    <t>DANFOSS RELAY 1/4 HP WHITE F321 (RY-006)
+DANFOSS RELAY 1/4 HP WHITE F321 (RY-006)</t>
+  </si>
+  <si>
+    <t>ZADI-1575</t>
+  </si>
+  <si>
+    <t>RELAY 117U 6001 220V 1/5HP (10 P) RY-007
+RELAY 117U 6001 220V 1/5HP (10 P) RY-007</t>
+  </si>
+  <si>
+    <t>ZADI-1576</t>
+  </si>
+  <si>
+    <t>RELAY 1/4HP (500 P) RY-008
+RELAY 1/4HP (500 P) RY-008</t>
+  </si>
+  <si>
+    <t>ZADI-1577</t>
+  </si>
+  <si>
+    <t>BLACK RELAY 1/3 HP (500 P) RY-009
+BLACK RELAY 1/3 HP (500 P) RY-009</t>
+  </si>
+  <si>
+    <t>ZADI-1578</t>
+  </si>
+  <si>
+    <t>BLACK RELAY 1/4 HP (500 P) RY-010
+BLACK RELAY 1/4 HP (500 P) RY-010</t>
+  </si>
+  <si>
+    <t>ZADI-1579</t>
+  </si>
+  <si>
+    <t>RELAY WITH OVER LOAD 1/3 HP (250 P) RY-011
+RELAY WITH OVER LOAD 1/3 HP (250 P) RY-011</t>
+  </si>
+  <si>
+    <t>ZADI-1580</t>
+  </si>
+  <si>
+    <t>RELAY WITH OVER LOAD 1/4 HP (250 P) RY-012
+RELAY WITH OVER LOAD 1/4 HP (250 P) RY-012</t>
+  </si>
+  <si>
+    <t>ZADI-1581</t>
+  </si>
+  <si>
+    <t>DESPENSOR RELAY WHITE 2PIN (RY-013) (140 PS)
+DESPENSOR RELAY WHITE 2PIN (RY-013) (140 PS)</t>
+  </si>
+  <si>
+    <t>ZADI-1582</t>
+  </si>
+  <si>
+    <t>DESPENSOR RELAY WHITE 4 PIN (RY-014) (140P)
+DESPENSOR RELAY WHITE 4 PIN (RY-014) (140P)</t>
+  </si>
+  <si>
+    <t>ZADI-1583</t>
+  </si>
+  <si>
+    <t>RELAY 4PIN 11/2FLA 60LRA 125VAC-8FLA48LRA250VAC 25A277VAC-24V
+RELAY 4PIN 11/2FLA 60LRA 125VAC-8FLA48LRA250VAC 25A277VAC-24V</t>
+  </si>
+  <si>
+    <t>ZADI-1584</t>
+  </si>
+  <si>
+    <t>RELAY 6PIN 11/2FLA 60LRA, 125VAC-8FLA48LRA250VAC 25A277VAC-24V
+RELAY 6PIN 11/2FLA 60LRA, 125VAC-8FLA48LRA250VAC 25A277VAC-24V</t>
+  </si>
+  <si>
+    <t>ZADI-1585</t>
+  </si>
+  <si>
+    <t>RELAY 10PIN 6FLA 277VAC 60LRA 120V3SLRA277VAC-24V
+RELAY 10PIN 6FLA 277VAC 60LRA 120V3SLRA277VAC-24V</t>
+  </si>
+  <si>
+    <t>ZADI-1586</t>
+  </si>
+  <si>
+    <t>RELAY PTK-2 -REFRIGERATOR
+RELAY PTK-2 -REFRIGERATOR</t>
+  </si>
+  <si>
+    <t>ZADI-1587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECOP RELAY 1/2HP 220V
+</t>
+  </si>
+  <si>
+    <t>ZADI-1588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAY POTENTIAL 336 VAC (RY-013-1)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAY LG 6 PIN 220V (RY-114 NEW CODE)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3W FAN MOTOR CHINA 220V (30P) (RM3W-061)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5W 220V ELCO CONDENCER MOTOR CHINA (20P)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5W 127V/220V ELCO CONDENCER MOTOR CHINA (20P)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10W 220V ELCO CONDENCER MOTOR CHINA (20P)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16W 220V ELCO CONDENCER MOTOR CHINA(12P)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16W 127V/220V ELCO CONDENCER MOTOR CHINA(12P)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25W 220V ELCO CONDENCER MOTOR CHINA (9P)&amp;(12)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5 HP REF CONDANCER 11 U (10 P)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1598</t>
+  </si>
+  <si>
+    <t>161 W/M TIMER SANYO 6W (1 HOLE)
+M3</t>
+  </si>
+  <si>
     <t>Washing Machine</t>
   </si>
   <si>
+    <t>ZADI-1599</t>
+  </si>
+  <si>
+    <t>WM TIMER GENERAL 3W SMALL (100P) -(162)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1600</t>
+  </si>
+  <si>
+    <t>WM TIMER GENERAL 3W BIG (163)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1601</t>
+  </si>
+  <si>
+    <t>W/M TIMER 6 WIRE BIG FITTING TWMG-GENERAL (N) 164
+M3</t>
+  </si>
+  <si>
     <t>ZADI-1602</t>
   </si>
   <si>
     <t>W/M TIMER 6 WIRE SMALL FITTING TWMG-GENERAL(M) (AFTC-017)
 M3</t>
+  </si>
+  <si>
+    <t>ZADI-1603</t>
+  </si>
+  <si>
+    <t>W/M TIMER HITACHI 4PIN (166)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1604</t>
+  </si>
+  <si>
+    <t>W/M TIMER HITACHI 5 CLIP (50P) (007+167)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1605</t>
+  </si>
+  <si>
+    <t>W/M 2 PIN HITACHI SPIN TIMER SMALL FITTING (008+168)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1606</t>
+  </si>
+  <si>
+    <t>W/M TIMER SAMSUNG 4 CLIP METAL SHAFT SINGEL FITTING (169)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1607</t>
+  </si>
+  <si>
+    <t>W/M TIMER HITACHI 4 CLIP SMALL FITTING
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1608</t>
+  </si>
+  <si>
+    <t>W/M TIMER 2 WIRE SPIN ANGEL (CROSS FITTING)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1609</t>
+  </si>
+  <si>
+    <t>WM TIMER 2 WIRE SPIN SINGLE FITTING (COMMON)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1610</t>
+  </si>
+  <si>
+    <t>W/M TIMER DAEWOOD 2 WIRE SPIN
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1611</t>
+  </si>
+  <si>
+    <t>W/M TIMER GENERAL 3 WIRE CROSS FITTING
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1612</t>
+  </si>
+  <si>
+    <t>W/M TIMER LG TWIN (156)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1613</t>
+  </si>
+  <si>
+    <t>W/M TIMER 5 WIRE CROSS FITTING
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1614</t>
+  </si>
+  <si>
+    <t>W/M TIMER 6 WIRE CROSS FITTING
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1615</t>
+  </si>
+  <si>
+    <t>W/M TIMER 5 WIRE SMALL FITTING 60CM L
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1616</t>
+  </si>
+  <si>
+    <t>W/M TIMER 5 WIRE BIG FITTING 60CM WIRE L
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1617</t>
+  </si>
+  <si>
+    <t>W/M TIMER 7 WIRE SMALL FITTING 60CM WIRE L
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1618</t>
+  </si>
+  <si>
+    <t>W/M TIMER 7 WIRE CROSS FITTING 60CM WIRE L
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1619</t>
+  </si>
+  <si>
+    <t>W/M TIMER 7 WIRE BIG FITTING 60CM WIRE L
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1620</t>
+  </si>
+  <si>
+    <t>W/M DRAIN TIMER 5 PIN SMALL FITTING
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1621</t>
+  </si>
+  <si>
+    <t>W/M DRAIN TIMER 3 PIN CROSS FITTING
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1622</t>
+  </si>
+  <si>
+    <t>W/M DRAIN TIMER 3 PIN SMALL FITTING
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1623</t>
+  </si>
+  <si>
+    <t>W/M TIMER PLASTIC SHAFT 4 PIN PANASONIC
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1624</t>
+  </si>
+  <si>
+    <t>W/M DRAIN TIMER 3 PIN BIG FITTING
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1625</t>
+  </si>
+  <si>
+    <t>W/M DRAIN TIMER 4 PIN PLASTIC SHAFT SINGEL FITTING
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1626</t>
+  </si>
+  <si>
+    <t>W/M DRAIN TIMER 3 PIN PLASTIC SHAFT SINGEL FITTING
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1627</t>
+  </si>
+  <si>
+    <t>W/M DRAIN TIMER 5 CLIP BLACK
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1628</t>
+  </si>
+  <si>
+    <t>60W 10MM W/M SPIN MOTOR (4P) GOLDEN COLOUR (001)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1629</t>
+  </si>
+  <si>
+    <t>90W 10MM WM SPIN MOTOR GOLDEN COLOR(4P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1630</t>
+  </si>
+  <si>
+    <t>120W 12MM WASHING MOTOR GOLDEN COLOUR (4P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1631</t>
+  </si>
+  <si>
+    <t>150W 12 MM WASHING MOTOR GOLDEN COLOUR (4P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1632</t>
+  </si>
+  <si>
+    <t>CONTACTOR 2P 30/40A SIEMENS TYPE 220-240V (BOX-50P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1633</t>
+  </si>
+  <si>
+    <t>CONTACTOR 3P 40/50A SIEMENS TYPE 220-240V TERMINAL (BOX-50P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1634</t>
+  </si>
+  <si>
+    <t>1/4"30" COPPER COIL MULLER USA (10P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1635</t>
+  </si>
+  <si>
+    <t>3/8"32" COPPER COIL MULLER USA (10P) (15M)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1636</t>
+  </si>
+  <si>
+    <t>1/2"32" COPPER COIL MULLER USA
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1637</t>
+  </si>
+  <si>
+    <t>5/8"35" COPPER COIL MULLER USA (5P)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1638</t>
+  </si>
+  <si>
+    <t>3/4"35" COPPER COIL MULLER USA (3P) (15M)
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1639</t>
+  </si>
+  <si>
+    <t>COPPER COIL 1/4"24" KOREA
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1640</t>
+  </si>
+  <si>
+    <t>COPPER COIL 3/8"24" KOREA
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1641</t>
+  </si>
+  <si>
+    <t>1/2"24" COPPER COIL KOREA
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1642</t>
+  </si>
+  <si>
+    <t>COPPER COIL 1/2"26" KOREA
+M5</t>
+  </si>
+  <si>
+    <t>ZADI-1643</t>
+  </si>
+  <si>
+    <t>COPPER COIL 5/8"26" KOREA
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1644</t>
+  </si>
+  <si>
+    <t>COPPER COIL 5/8"28" KOREA
+M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لفة / Roll </t>
+  </si>
+  <si>
+    <t>ZADI-1645</t>
+  </si>
+  <si>
+    <t>R410 FROSTBERG USA 11.3KG
+M3</t>
+  </si>
+  <si>
+    <t>ZADI-1646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 2*2.5MM FLXIBLE WIRE 100Y (91.4M) K.S.A</t>
+  </si>
+  <si>
+    <t>ZADI-1647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 FLEXIBLE WIRE 3*2.5MM 100Y (91.4M) K.S.A</t>
+  </si>
+  <si>
+    <t>ZADI-1648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 FLEXIBLE WIRE 4*2.5M.M 100Y (91.4M) KSA</t>
+  </si>
+  <si>
+    <t>ZADI-1649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 AFTC INSOLITION PIPE WRAPPING TAPE 2" (54PCS/BOX)</t>
+  </si>
+  <si>
+    <t>BOX</t>
+  </si>
+  <si>
+    <t>ZADI-1650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 COPPER TUBE KIT 1/4"+1/2" 4M LONG (AFTC-CAK-001)</t>
+  </si>
+  <si>
+    <t>ZADI-1651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 COPPER TUBE KIT 1/4"+5/8" 4M LONG (AFTC-CAK-004)</t>
+  </si>
+  <si>
+    <t>ZADI-1652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 COPPER TUBE KIT 3/8"+5/8" 4M LONG (AFTC-CAK-007)</t>
+  </si>
+  <si>
+    <t>ZADI-1653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 FN20 SPLIT IN DOR MOTOR YYR20-4 PG 208-230V/60HZ 20W (10P)</t>
+  </si>
+  <si>
+    <t>ZADI-1654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 FN25 SPLIT IN DOR MOTOR YYR25-4A1 PG 208-230V/60HZ 25W (8P)</t>
+  </si>
+  <si>
+    <t>ZADI-1655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 FN35 SPLIT IN DOR MOTOR YYR30-4A5 208-230V/60HZ 30W (8P)</t>
+  </si>
+  <si>
+    <t>ZADI-1656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 AC MOTOR RP15-12 220-240V 60HZ 20W (10P)</t>
+  </si>
+  <si>
+    <t>ZADI-1657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 FN60 INDOOR MOTOR ZWR 50-F FN60B ZL DC 310V 50W 1500RPM (10P)</t>
+  </si>
+  <si>
+    <t>ZADI-1658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 AC FAN MOTOR LG 1392R 208-230V 50/60Hz 1/18HP 930RPM</t>
+  </si>
+  <si>
+    <t>ZADI-1659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M3 FAN MOTOR YDK-40-6CF 3UF 208/230V 50/60HZ</t>
+  </si>
+  <si>
+    <t>ZADI-1660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YDK-60A-6CF BIG CH ROUND 60W SPLIT AC FAN MOTOR OUTDOR
+</t>
+  </si>
+  <si>
+    <t>ZADI-1661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC FAN MOTOR YDK36-6B 220-240V 60HZ 36W 0.4A
+</t>
+  </si>
+  <si>
+    <t>ZADI-1662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFTC MOTOR YDK53-6KB (B) 3UF AC MOTOR 1PH 53W 900RPM
+</t>
+  </si>
+  <si>
+    <t>ZADI-1663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT BEARINGS 608ZZ GT
+</t>
+  </si>
+  <si>
+    <t>ZADI-1664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6201-ZZ-GT BEARING CHINA
+</t>
+  </si>
+  <si>
+    <t>ZADI-1665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6202 ZZ GTBEARING CHINA
+</t>
+  </si>
+  <si>
+    <t>ZADI-1666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSK BEARING 608 ZZCM JAPAN
+</t>
+  </si>
+  <si>
+    <t>ZADI-1667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSK BEARING 6201 DDUCM JAPAN
+</t>
+  </si>
+  <si>
+    <t>ZADI-1668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSK BEARING 6202 ZZCM JAPAN
+</t>
+  </si>
+  <si>
+    <t>ZADI-1669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35+5UF CAPACITOR 450V 2+3+4PIN ALUMINIUM (CBB65-106)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40+5UF CAPACITOR 450V 2+3+4PIN ALUMINIUM (CBB65-107)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45+5UF CAPACITOR 450V 2+3+4PIN ALUMINIUM (CBB65-108)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50+5UF CAPACITOR 450V 2+3+4PIN ALUMINIUM (CBB65-109)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55+5UF CAPACITOR 450V 2+3+4PIN ALUMINIUM (CBB65-110)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60+5UF CAPACITOR 450V 2+3+4PIN ALUMINIUM (CBB65-111)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35+5 UF CAPACITOR KOREA
+</t>
+  </si>
+  <si>
+    <t>ZADI-1676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40+5 UF CAPACITOR KOREA (100P)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45+5 UF CAPACITOR KOREA (50P)
+</t>
+  </si>
+  <si>
+    <t>ZADI-1678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50+5 UF CAPACITOR KOREA
+</t>
+  </si>
+  <si>
+    <t>ZADI-1679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55+5 UF CAPACITOR KOREA
+</t>
+  </si>
+  <si>
+    <t>ZADI-1680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60+5 UF CAPACITOR KOREA
+</t>
+  </si>
+  <si>
+    <t>ZADI-1681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOLDING HEX KEY SET TAIWAN
+</t>
   </si>
 </sst>
 </file>
@@ -211,7 +1555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -222,7 +1566,16 @@
     <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161C9592-DB93-4512-8DB6-55E6566AB3D5}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -550,31 +1903,31 @@
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -582,35 +1935,6650 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="K2" s="13">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="K3" s="7">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="K4" s="13">
+        <v>31.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>15</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4.05</v>
+      </c>
+      <c r="K5" s="7">
+        <v>31.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3">
+        <v>18.75</v>
+      </c>
+      <c r="K6" s="13">
+        <v>143.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>15</v>
+      </c>
+      <c r="J7" s="6">
+        <v>13.13</v>
+      </c>
+      <c r="K7" s="7">
+        <v>100.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="10">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13.13</v>
+      </c>
+      <c r="K8" s="13">
+        <v>100.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>15</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="K9" s="7">
+        <v>40.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6</v>
+      </c>
+      <c r="K10" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>15</v>
+      </c>
+      <c r="J11" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="K11" s="7">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="K12" s="13">
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>15</v>
+      </c>
+      <c r="J13" s="6">
+        <v>4.88</v>
+      </c>
+      <c r="K13" s="7">
+        <v>37.380000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="K14" s="13">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>6</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>15</v>
+      </c>
+      <c r="J15" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="K15" s="7">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="10">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>6</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="K16" s="13">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6">
+        <v>8</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>15</v>
+      </c>
+      <c r="J17" s="6">
+        <v>6</v>
+      </c>
+      <c r="K17" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="10">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="K18" s="13">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>15</v>
+      </c>
+      <c r="J19" s="6">
+        <v>6.38</v>
+      </c>
+      <c r="K19" s="7">
+        <v>48.88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="10">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>9</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="K20" s="13">
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>15</v>
+      </c>
+      <c r="J21" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="K21" s="7">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
         <v>12</v>
       </c>
-      <c r="F2" s="7">
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3">
+        <v>9</v>
+      </c>
+      <c r="K22" s="13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6">
         <v>10</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>15</v>
+      </c>
+      <c r="J23" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="K23" s="7">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="10">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>15</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>15</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11.25</v>
+      </c>
+      <c r="K24" s="13">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6">
+        <v>15</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>15</v>
+      </c>
+      <c r="J25" s="6">
+        <v>11.25</v>
+      </c>
+      <c r="K25" s="7">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="10">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>15</v>
+      </c>
+      <c r="J26" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="K26" s="13">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4">
+        <v>100</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>15</v>
+      </c>
+      <c r="J27" s="6">
+        <v>31.05</v>
+      </c>
+      <c r="K27" s="7">
+        <v>238.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="10">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>14</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>15</v>
+      </c>
+      <c r="J28" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K28" s="13">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="6">
+        <v>15</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>15</v>
+      </c>
+      <c r="J29" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="K29" s="7">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="10">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>15</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>15</v>
+      </c>
+      <c r="J30" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="K30" s="13">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="6">
+        <v>15</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>15</v>
+      </c>
+      <c r="J31" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="K31" s="7">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="10">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>15</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>15</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="K32" s="13">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="6">
+        <v>15</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>15</v>
+      </c>
+      <c r="J33" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="K33" s="7">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="10">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>15</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>15</v>
+      </c>
+      <c r="J34" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="K34" s="13">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="6">
+        <v>19</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <v>15</v>
+      </c>
+      <c r="J35" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="K35" s="7">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="10">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>19</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>15</v>
+      </c>
+      <c r="J36" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="K36" s="13">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="6">
+        <v>19</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>15</v>
+      </c>
+      <c r="J37" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="K37" s="7">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="10">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>19</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>15</v>
+      </c>
+      <c r="J38" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="K38" s="13">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="6">
+        <v>13</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>15</v>
+      </c>
+      <c r="J39" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="K39" s="7">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="10">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3">
+        <v>13</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>15</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="K40" s="13">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" s="6">
+        <v>13</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>15</v>
+      </c>
+      <c r="J41" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="K41" s="7">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="10">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>14</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>15</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K42" s="13">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="6">
+        <v>14</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>15</v>
+      </c>
+      <c r="J43" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="K43" s="7">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="10">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>14</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>15</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K44" s="13">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="4">
+        <v>5</v>
+      </c>
+      <c r="G45" s="6">
+        <v>14</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>15</v>
+      </c>
+      <c r="J45" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="K45" s="7">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="10">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>14</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>15</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="K46" s="13">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5</v>
+      </c>
+      <c r="G47" s="6">
+        <v>14</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>15</v>
+      </c>
+      <c r="J47" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="K47" s="7">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="10">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>15</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>15</v>
+      </c>
+      <c r="J48" s="3">
+        <v>11.25</v>
+      </c>
+      <c r="K48" s="13">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="4">
+        <v>5</v>
+      </c>
+      <c r="G49" s="6">
+        <v>15</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>15</v>
+      </c>
+      <c r="J49" s="6">
+        <v>11.25</v>
+      </c>
+      <c r="K49" s="7">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="10">
+        <v>5</v>
+      </c>
+      <c r="G50" s="3">
+        <v>18</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>15</v>
+      </c>
+      <c r="J50" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="K50" s="13">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="4">
+        <v>5</v>
+      </c>
+      <c r="G51" s="6">
+        <v>10</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>15</v>
+      </c>
+      <c r="J51" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="K51" s="7">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="10">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>45</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>15</v>
+      </c>
+      <c r="J52" s="3">
+        <v>20.25</v>
+      </c>
+      <c r="K52" s="13">
+        <v>155.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3</v>
+      </c>
+      <c r="G53" s="6">
+        <v>42</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>15</v>
+      </c>
+      <c r="J53" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K53" s="7">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="10">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3">
+        <v>50</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>15</v>
+      </c>
+      <c r="J54" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="K54" s="13">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3</v>
+      </c>
+      <c r="G55" s="6">
+        <v>42</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>15</v>
+      </c>
+      <c r="J55" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K55" s="7">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="10">
+        <v>3</v>
+      </c>
+      <c r="G56" s="3">
+        <v>16</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>15</v>
+      </c>
+      <c r="J56" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="K56" s="13">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="4">
+        <v>3</v>
+      </c>
+      <c r="G57" s="6">
+        <v>16</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>15</v>
+      </c>
+      <c r="J57" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="K57" s="7">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="10">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
+        <v>12</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>15</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="K58" s="13">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="4">
+        <v>3</v>
+      </c>
+      <c r="G59" s="6">
+        <v>28</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>15</v>
+      </c>
+      <c r="J59" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="K59" s="7">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="10">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3">
+        <v>33</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>15</v>
+      </c>
+      <c r="J60" s="3">
+        <v>14.85</v>
+      </c>
+      <c r="K60" s="13">
+        <v>113.85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="4">
+        <v>3</v>
+      </c>
+      <c r="G61" s="6">
+        <v>33</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <v>15</v>
+      </c>
+      <c r="J61" s="6">
+        <v>14.85</v>
+      </c>
+      <c r="K61" s="7">
+        <v>113.85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="10">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3">
+        <v>25</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>15</v>
+      </c>
+      <c r="J62" s="3">
+        <v>11.25</v>
+      </c>
+      <c r="K62" s="13">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="4">
+        <v>3</v>
+      </c>
+      <c r="G63" s="6">
+        <v>26</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>15</v>
+      </c>
+      <c r="J63" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="K63" s="7">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="10">
+        <v>3</v>
+      </c>
+      <c r="G64" s="3">
+        <v>26</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>15</v>
+      </c>
+      <c r="J64" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="K64" s="13">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="4">
+        <v>3</v>
+      </c>
+      <c r="G65" s="6">
+        <v>17</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>15</v>
+      </c>
+      <c r="J65" s="6">
+        <v>7.65</v>
+      </c>
+      <c r="K65" s="7">
+        <v>58.65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="10">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3">
+        <v>40</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>15</v>
+      </c>
+      <c r="J66" s="3">
+        <v>18</v>
+      </c>
+      <c r="K66" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="4">
+        <v>3</v>
+      </c>
+      <c r="G67" s="6">
+        <v>45</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <v>15</v>
+      </c>
+      <c r="J67" s="6">
+        <v>20.25</v>
+      </c>
+      <c r="K67" s="7">
+        <v>155.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="10">
+        <v>3</v>
+      </c>
+      <c r="G68" s="3">
+        <v>17</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <v>15</v>
+      </c>
+      <c r="J68" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="K68" s="13">
+        <v>58.65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="4">
+        <v>5</v>
+      </c>
+      <c r="G69" s="6">
+        <v>12</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
+        <v>15</v>
+      </c>
+      <c r="J69" s="6">
+        <v>9</v>
+      </c>
+      <c r="K69" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="10">
+        <v>5</v>
+      </c>
+      <c r="G70" s="3">
+        <v>13</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <v>15</v>
+      </c>
+      <c r="J70" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="K70" s="13">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="4">
+        <v>5</v>
+      </c>
+      <c r="G71" s="6">
+        <v>12</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6">
+        <v>15</v>
+      </c>
+      <c r="J71" s="6">
+        <v>9</v>
+      </c>
+      <c r="K71" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="10">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
+        <v>12</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6">
+        <v>15</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="K72" s="13">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="4">
+        <v>3</v>
+      </c>
+      <c r="G73" s="6">
+        <v>12</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0</v>
+      </c>
+      <c r="I73" s="6">
+        <v>15</v>
+      </c>
+      <c r="J73" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="K73" s="7">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="10">
+        <v>3</v>
+      </c>
+      <c r="G74" s="3">
+        <v>12</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
+        <v>15</v>
+      </c>
+      <c r="J74" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="K74" s="13">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="4">
+        <v>3</v>
+      </c>
+      <c r="G75" s="6">
+        <v>12</v>
+      </c>
+      <c r="H75" s="6">
+        <v>0</v>
+      </c>
+      <c r="I75" s="6">
+        <v>15</v>
+      </c>
+      <c r="J75" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="K75" s="7">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="10">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3">
+        <v>16</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <v>15</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="K76" s="13">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="4">
+        <v>3</v>
+      </c>
+      <c r="G77" s="6">
+        <v>15</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+      <c r="I77" s="6">
+        <v>15</v>
+      </c>
+      <c r="J77" s="6">
+        <v>6.75</v>
+      </c>
+      <c r="K77" s="7">
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="10">
+        <v>3</v>
+      </c>
+      <c r="G78" s="3">
+        <v>16</v>
+      </c>
+      <c r="H78" s="6">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6">
+        <v>15</v>
+      </c>
+      <c r="J78" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="K78" s="13">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="4">
+        <v>10</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0</v>
+      </c>
+      <c r="I79" s="6">
+        <v>15</v>
+      </c>
+      <c r="J79" s="6">
+        <v>2.93</v>
+      </c>
+      <c r="K79" s="7">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="10">
+        <v>10</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="H80" s="6">
+        <v>0</v>
+      </c>
+      <c r="I80" s="6">
+        <v>15</v>
+      </c>
+      <c r="J80" s="3">
+        <v>2.93</v>
+      </c>
+      <c r="K80" s="13">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="4">
+        <v>10</v>
+      </c>
+      <c r="G81" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="H81" s="6">
+        <v>0</v>
+      </c>
+      <c r="I81" s="6">
+        <v>15</v>
+      </c>
+      <c r="J81" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="K81" s="7">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="10">
+        <v>10</v>
+      </c>
+      <c r="G82" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="H82" s="6">
+        <v>0</v>
+      </c>
+      <c r="I82" s="6">
+        <v>15</v>
+      </c>
+      <c r="J82" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="K82" s="13">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="4">
+        <v>10</v>
+      </c>
+      <c r="G83" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="H83" s="6">
+        <v>0</v>
+      </c>
+      <c r="I83" s="6">
+        <v>15</v>
+      </c>
+      <c r="J83" s="6">
+        <v>14.85</v>
+      </c>
+      <c r="K83" s="7">
+        <v>113.85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="10">
+        <v>10</v>
+      </c>
+      <c r="G84" s="3">
+        <v>10</v>
+      </c>
+      <c r="H84" s="6">
+        <v>0</v>
+      </c>
+      <c r="I84" s="6">
+        <v>15</v>
+      </c>
+      <c r="J84" s="3">
+        <v>15</v>
+      </c>
+      <c r="K84" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="4">
+        <v>10</v>
+      </c>
+      <c r="G85" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="H85" s="6">
+        <v>0</v>
+      </c>
+      <c r="I85" s="6">
+        <v>15</v>
+      </c>
+      <c r="J85" s="6">
+        <v>14.25</v>
+      </c>
+      <c r="K85" s="7">
+        <v>109.25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="10">
+        <v>10</v>
+      </c>
+      <c r="G86" s="3">
+        <v>8.85</v>
+      </c>
+      <c r="H86" s="6">
+        <v>0</v>
+      </c>
+      <c r="I86" s="6">
+        <v>15</v>
+      </c>
+      <c r="J86" s="3">
+        <v>13.28</v>
+      </c>
+      <c r="K86" s="13">
+        <v>101.78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="4">
+        <v>10</v>
+      </c>
+      <c r="G87" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="H87" s="6">
+        <v>0</v>
+      </c>
+      <c r="I87" s="6">
+        <v>15</v>
+      </c>
+      <c r="J87" s="6">
+        <v>13.35</v>
+      </c>
+      <c r="K87" s="7">
+        <v>102.35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="10">
+        <v>10</v>
+      </c>
+      <c r="G88" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="H88" s="6">
+        <v>0</v>
+      </c>
+      <c r="I88" s="6">
+        <v>15</v>
+      </c>
+      <c r="J88" s="3">
+        <v>13.35</v>
+      </c>
+      <c r="K88" s="13">
+        <v>102.35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="4">
+        <v>10</v>
+      </c>
+      <c r="G89" s="6">
+        <v>12</v>
+      </c>
+      <c r="H89" s="6">
+        <v>0</v>
+      </c>
+      <c r="I89" s="6">
+        <v>15</v>
+      </c>
+      <c r="J89" s="6">
+        <v>18</v>
+      </c>
+      <c r="K89" s="7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="10">
+        <v>10</v>
+      </c>
+      <c r="G90" s="3">
+        <v>12</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0</v>
+      </c>
+      <c r="I90" s="6">
+        <v>15</v>
+      </c>
+      <c r="J90" s="3">
+        <v>18</v>
+      </c>
+      <c r="K90" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="4">
+        <v>10</v>
+      </c>
+      <c r="G91" s="6">
+        <v>12</v>
+      </c>
+      <c r="H91" s="6">
+        <v>0</v>
+      </c>
+      <c r="I91" s="6">
+        <v>15</v>
+      </c>
+      <c r="J91" s="6">
+        <v>18</v>
+      </c>
+      <c r="K91" s="7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="10">
+        <v>10</v>
+      </c>
+      <c r="G92" s="3">
+        <v>12</v>
+      </c>
+      <c r="H92" s="6">
+        <v>0</v>
+      </c>
+      <c r="I92" s="6">
+        <v>15</v>
+      </c>
+      <c r="J92" s="3">
+        <v>18</v>
+      </c>
+      <c r="K92" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="4">
+        <v>10</v>
+      </c>
+      <c r="G93" s="6">
+        <v>16</v>
+      </c>
+      <c r="H93" s="6">
+        <v>0</v>
+      </c>
+      <c r="I93" s="6">
+        <v>15</v>
+      </c>
+      <c r="J93" s="6">
+        <v>24</v>
+      </c>
+      <c r="K93" s="7">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="10">
+        <v>10</v>
+      </c>
+      <c r="G94" s="3">
+        <v>18</v>
+      </c>
+      <c r="H94" s="6">
+        <v>0</v>
+      </c>
+      <c r="I94" s="6">
+        <v>15</v>
+      </c>
+      <c r="J94" s="3">
+        <v>27</v>
+      </c>
+      <c r="K94" s="13">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="4">
+        <v>10</v>
+      </c>
+      <c r="G95" s="6">
+        <v>36</v>
+      </c>
+      <c r="H95" s="6">
+        <v>0</v>
+      </c>
+      <c r="I95" s="6">
+        <v>15</v>
+      </c>
+      <c r="J95" s="6">
+        <v>54</v>
+      </c>
+      <c r="K95" s="7">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="10">
+        <v>10</v>
+      </c>
+      <c r="G96" s="3">
+        <v>12.25</v>
+      </c>
+      <c r="H96" s="6">
+        <v>0</v>
+      </c>
+      <c r="I96" s="6">
+        <v>15</v>
+      </c>
+      <c r="J96" s="3">
+        <v>18.38</v>
+      </c>
+      <c r="K96" s="13">
+        <v>140.88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="4">
+        <v>10</v>
+      </c>
+      <c r="G97" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="H97" s="6">
+        <v>0</v>
+      </c>
+      <c r="I97" s="6">
+        <v>15</v>
+      </c>
+      <c r="J97" s="6">
+        <v>24.75</v>
+      </c>
+      <c r="K97" s="7">
+        <v>189.75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="10">
+        <v>10</v>
+      </c>
+      <c r="G98" s="3">
+        <v>21</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0</v>
+      </c>
+      <c r="I98" s="6">
+        <v>15</v>
+      </c>
+      <c r="J98" s="3">
+        <v>31.5</v>
+      </c>
+      <c r="K98" s="13">
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="4">
+        <v>10</v>
+      </c>
+      <c r="G99" s="6">
+        <v>17</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0</v>
+      </c>
+      <c r="I99" s="6">
+        <v>15</v>
+      </c>
+      <c r="J99" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="K99" s="7">
+        <v>195.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="10">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>14</v>
+      </c>
+      <c r="H100" s="6">
+        <v>0</v>
+      </c>
+      <c r="I100" s="6">
+        <v>15</v>
+      </c>
+      <c r="J100" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="K100" s="13">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="4">
+        <v>5</v>
+      </c>
+      <c r="G101" s="6">
+        <v>17</v>
+      </c>
+      <c r="H101" s="6">
+        <v>0</v>
+      </c>
+      <c r="I101" s="6">
+        <v>15</v>
+      </c>
+      <c r="J101" s="6">
+        <v>12.75</v>
+      </c>
+      <c r="K101" s="7">
+        <v>97.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="10">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>23</v>
+      </c>
+      <c r="H102" s="6">
+        <v>0</v>
+      </c>
+      <c r="I102" s="6">
+        <v>15</v>
+      </c>
+      <c r="J102" s="3">
+        <v>17.25</v>
+      </c>
+      <c r="K102" s="13">
+        <v>132.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="4">
+        <v>3</v>
+      </c>
+      <c r="G103" s="6">
+        <v>26</v>
+      </c>
+      <c r="H103" s="6">
+        <v>0</v>
+      </c>
+      <c r="I103" s="6">
+        <v>15</v>
+      </c>
+      <c r="J103" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="K103" s="7">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="10">
+        <v>3</v>
+      </c>
+      <c r="G104" s="3">
+        <v>38</v>
+      </c>
+      <c r="H104" s="6">
+        <v>0</v>
+      </c>
+      <c r="I104" s="6">
+        <v>15</v>
+      </c>
+      <c r="J104" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K104" s="13">
+        <v>131.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="4">
+        <v>3</v>
+      </c>
+      <c r="G105" s="6">
+        <v>50</v>
+      </c>
+      <c r="H105" s="6">
+        <v>0</v>
+      </c>
+      <c r="I105" s="6">
+        <v>15</v>
+      </c>
+      <c r="J105" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="K105" s="7">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="10">
+        <v>3</v>
+      </c>
+      <c r="G106" s="3">
+        <v>60</v>
+      </c>
+      <c r="H106" s="6">
+        <v>0</v>
+      </c>
+      <c r="I106" s="6">
+        <v>15</v>
+      </c>
+      <c r="J106" s="3">
+        <v>27</v>
+      </c>
+      <c r="K106" s="13">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="4">
+        <v>3</v>
+      </c>
+      <c r="G107" s="6">
+        <v>15</v>
+      </c>
+      <c r="H107" s="6">
+        <v>0</v>
+      </c>
+      <c r="I107" s="6">
+        <v>15</v>
+      </c>
+      <c r="J107" s="6">
+        <v>6.75</v>
+      </c>
+      <c r="K107" s="7">
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="10">
+        <v>10</v>
+      </c>
+      <c r="G108" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="H108" s="6">
+        <v>0</v>
+      </c>
+      <c r="I108" s="6">
+        <v>15</v>
+      </c>
+      <c r="J108" s="3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="K108" s="13">
+        <v>66.13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="4">
+        <v>10</v>
+      </c>
+      <c r="G109" s="6">
         <v>5.5</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="H109" s="6">
+        <v>0</v>
+      </c>
+      <c r="I109" s="6">
+        <v>15</v>
+      </c>
+      <c r="J109" s="6">
         <v>8.25</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K109" s="7">
         <v>63.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="10">
+        <v>10</v>
+      </c>
+      <c r="G110" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="H110" s="6">
+        <v>0</v>
+      </c>
+      <c r="I110" s="6">
+        <v>15</v>
+      </c>
+      <c r="J110" s="3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="K110" s="13">
+        <v>66.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="4">
+        <v>10</v>
+      </c>
+      <c r="G111" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="H111" s="6">
+        <v>0</v>
+      </c>
+      <c r="I111" s="6">
+        <v>15</v>
+      </c>
+      <c r="J111" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="K111" s="7">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="10">
+        <v>10</v>
+      </c>
+      <c r="G112" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="H112" s="6">
+        <v>0</v>
+      </c>
+      <c r="I112" s="6">
+        <v>15</v>
+      </c>
+      <c r="J112" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="K112" s="13">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="4">
+        <v>10</v>
+      </c>
+      <c r="G113" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="H113" s="6">
+        <v>0</v>
+      </c>
+      <c r="I113" s="6">
+        <v>15</v>
+      </c>
+      <c r="J113" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="K113" s="7">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="10">
+        <v>10</v>
+      </c>
+      <c r="G114" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="H114" s="6">
+        <v>0</v>
+      </c>
+      <c r="I114" s="6">
+        <v>15</v>
+      </c>
+      <c r="J114" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="K114" s="13">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="4">
+        <v>10</v>
+      </c>
+      <c r="G115" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="H115" s="6">
+        <v>0</v>
+      </c>
+      <c r="I115" s="6">
+        <v>15</v>
+      </c>
+      <c r="J115" s="6">
+        <v>5.63</v>
+      </c>
+      <c r="K115" s="7">
+        <v>43.13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="10">
+        <v>10</v>
+      </c>
+      <c r="G116" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="H116" s="6">
+        <v>0</v>
+      </c>
+      <c r="I116" s="6">
+        <v>15</v>
+      </c>
+      <c r="J116" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="K116" s="13">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="4">
+        <v>10</v>
+      </c>
+      <c r="G117" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="H117" s="6">
+        <v>0</v>
+      </c>
+      <c r="I117" s="6">
+        <v>15</v>
+      </c>
+      <c r="J117" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="K117" s="7">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="10">
+        <v>10</v>
+      </c>
+      <c r="G118" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H118" s="6">
+        <v>0</v>
+      </c>
+      <c r="I118" s="6">
+        <v>15</v>
+      </c>
+      <c r="J118" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="K118" s="13">
+        <v>40.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="4">
+        <v>10</v>
+      </c>
+      <c r="G119" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="H119" s="6">
+        <v>0</v>
+      </c>
+      <c r="I119" s="6">
+        <v>15</v>
+      </c>
+      <c r="J119" s="6">
+        <v>5.63</v>
+      </c>
+      <c r="K119" s="7">
+        <v>43.13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="10">
+        <v>10</v>
+      </c>
+      <c r="G120" s="3">
+        <v>4</v>
+      </c>
+      <c r="H120" s="6">
+        <v>0</v>
+      </c>
+      <c r="I120" s="6">
+        <v>15</v>
+      </c>
+      <c r="J120" s="3">
+        <v>6</v>
+      </c>
+      <c r="K120" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="4">
+        <v>10</v>
+      </c>
+      <c r="G121" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="H121" s="6">
+        <v>0</v>
+      </c>
+      <c r="I121" s="6">
+        <v>15</v>
+      </c>
+      <c r="J121" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="K121" s="7">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="10">
+        <v>10</v>
+      </c>
+      <c r="G122" s="3">
+        <v>7</v>
+      </c>
+      <c r="H122" s="6">
+        <v>0</v>
+      </c>
+      <c r="I122" s="6">
+        <v>15</v>
+      </c>
+      <c r="J122" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="K122" s="13">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="4">
+        <v>10</v>
+      </c>
+      <c r="G123" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="H123" s="6">
+        <v>0</v>
+      </c>
+      <c r="I123" s="6">
+        <v>15</v>
+      </c>
+      <c r="J123" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="K123" s="7">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="10">
+        <v>10</v>
+      </c>
+      <c r="G124" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="H124" s="6">
+        <v>0</v>
+      </c>
+      <c r="I124" s="6">
+        <v>15</v>
+      </c>
+      <c r="J124" s="3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="K124" s="13">
+        <v>66.13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="4">
+        <v>10</v>
+      </c>
+      <c r="G125" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="H125" s="6">
+        <v>0</v>
+      </c>
+      <c r="I125" s="6">
+        <v>15</v>
+      </c>
+      <c r="J125" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="K125" s="7">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="10">
+        <v>10</v>
+      </c>
+      <c r="G126" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="H126" s="6">
+        <v>0</v>
+      </c>
+      <c r="I126" s="6">
+        <v>15</v>
+      </c>
+      <c r="J126" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="K126" s="13">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="4">
+        <v>10</v>
+      </c>
+      <c r="G127" s="6">
+        <v>6</v>
+      </c>
+      <c r="H127" s="6">
+        <v>0</v>
+      </c>
+      <c r="I127" s="6">
+        <v>15</v>
+      </c>
+      <c r="J127" s="6">
+        <v>9</v>
+      </c>
+      <c r="K127" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="10">
+        <v>10</v>
+      </c>
+      <c r="G128" s="3">
+        <v>6</v>
+      </c>
+      <c r="H128" s="6">
+        <v>0</v>
+      </c>
+      <c r="I128" s="6">
+        <v>15</v>
+      </c>
+      <c r="J128" s="3">
+        <v>9</v>
+      </c>
+      <c r="K128" s="13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="4">
+        <v>10</v>
+      </c>
+      <c r="G129" s="6">
+        <v>6</v>
+      </c>
+      <c r="H129" s="6">
+        <v>0</v>
+      </c>
+      <c r="I129" s="6">
+        <v>15</v>
+      </c>
+      <c r="J129" s="6">
+        <v>9</v>
+      </c>
+      <c r="K129" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="10">
+        <v>10</v>
+      </c>
+      <c r="G130" s="3">
+        <v>11</v>
+      </c>
+      <c r="H130" s="6">
+        <v>0</v>
+      </c>
+      <c r="I130" s="6">
+        <v>15</v>
+      </c>
+      <c r="J130" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="K130" s="13">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="4">
+        <v>10</v>
+      </c>
+      <c r="G131" s="6">
+        <v>11</v>
+      </c>
+      <c r="H131" s="6">
+        <v>0</v>
+      </c>
+      <c r="I131" s="6">
+        <v>15</v>
+      </c>
+      <c r="J131" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="K131" s="7">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="10">
+        <v>10</v>
+      </c>
+      <c r="G132" s="3">
+        <v>11</v>
+      </c>
+      <c r="H132" s="6">
+        <v>0</v>
+      </c>
+      <c r="I132" s="6">
+        <v>15</v>
+      </c>
+      <c r="J132" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="K132" s="13">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="4">
+        <v>10</v>
+      </c>
+      <c r="G133" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="H133" s="6">
+        <v>0</v>
+      </c>
+      <c r="I133" s="6">
+        <v>15</v>
+      </c>
+      <c r="J133" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="K133" s="7">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="10">
+        <v>10</v>
+      </c>
+      <c r="G134" s="3">
+        <v>11</v>
+      </c>
+      <c r="H134" s="6">
+        <v>0</v>
+      </c>
+      <c r="I134" s="6">
+        <v>15</v>
+      </c>
+      <c r="J134" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="K134" s="13">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="4">
+        <v>10</v>
+      </c>
+      <c r="G135" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="H135" s="6">
+        <v>0</v>
+      </c>
+      <c r="I135" s="6">
+        <v>15</v>
+      </c>
+      <c r="J135" s="6">
+        <v>17.25</v>
+      </c>
+      <c r="K135" s="7">
+        <v>132.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="10">
+        <v>10</v>
+      </c>
+      <c r="G136" s="3">
+        <v>12</v>
+      </c>
+      <c r="H136" s="6">
+        <v>0</v>
+      </c>
+      <c r="I136" s="6">
+        <v>15</v>
+      </c>
+      <c r="J136" s="3">
+        <v>18</v>
+      </c>
+      <c r="K136" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="4">
+        <v>10</v>
+      </c>
+      <c r="G137" s="6">
+        <v>6</v>
+      </c>
+      <c r="H137" s="6">
+        <v>0</v>
+      </c>
+      <c r="I137" s="6">
+        <v>15</v>
+      </c>
+      <c r="J137" s="6">
+        <v>9</v>
+      </c>
+      <c r="K137" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="10">
+        <v>4</v>
+      </c>
+      <c r="G138" s="3">
+        <v>20</v>
+      </c>
+      <c r="H138" s="6">
+        <v>0</v>
+      </c>
+      <c r="I138" s="6">
+        <v>15</v>
+      </c>
+      <c r="J138" s="3">
+        <v>12</v>
+      </c>
+      <c r="K138" s="13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" s="4">
+        <v>4</v>
+      </c>
+      <c r="G139" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="H139" s="6">
+        <v>0</v>
+      </c>
+      <c r="I139" s="6">
+        <v>15</v>
+      </c>
+      <c r="J139" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="K139" s="7">
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="10">
+        <v>4</v>
+      </c>
+      <c r="G140" s="3">
+        <v>28</v>
+      </c>
+      <c r="H140" s="6">
+        <v>0</v>
+      </c>
+      <c r="I140" s="6">
+        <v>15</v>
+      </c>
+      <c r="J140" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="K140" s="13">
+        <v>128.80000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" s="4">
+        <v>4</v>
+      </c>
+      <c r="G141" s="6">
+        <v>33</v>
+      </c>
+      <c r="H141" s="6">
+        <v>0</v>
+      </c>
+      <c r="I141" s="6">
+        <v>15</v>
+      </c>
+      <c r="J141" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="K141" s="7">
+        <v>151.80000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" s="10">
+        <v>20</v>
+      </c>
+      <c r="G142" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="H142" s="6">
+        <v>0</v>
+      </c>
+      <c r="I142" s="6">
+        <v>15</v>
+      </c>
+      <c r="J142" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="K142" s="13">
+        <v>195.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="4">
+        <v>20</v>
+      </c>
+      <c r="G143" s="6">
+        <v>24</v>
+      </c>
+      <c r="H143" s="6">
+        <v>0</v>
+      </c>
+      <c r="I143" s="6">
+        <v>15</v>
+      </c>
+      <c r="J143" s="6">
+        <v>72</v>
+      </c>
+      <c r="K143" s="7">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="10">
+        <v>10</v>
+      </c>
+      <c r="G144" s="3">
+        <v>125</v>
+      </c>
+      <c r="H144" s="6">
+        <v>0</v>
+      </c>
+      <c r="I144" s="6">
+        <v>15</v>
+      </c>
+      <c r="J144" s="3">
+        <v>187.5</v>
+      </c>
+      <c r="K144" s="13">
+        <v>1437.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" s="4">
+        <v>10</v>
+      </c>
+      <c r="G145" s="6">
+        <v>197</v>
+      </c>
+      <c r="H145" s="6">
+        <v>0</v>
+      </c>
+      <c r="I145" s="6">
+        <v>15</v>
+      </c>
+      <c r="J145" s="6">
+        <v>295.5</v>
+      </c>
+      <c r="K145" s="7">
+        <v>2265.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="10">
+        <v>10</v>
+      </c>
+      <c r="G146" s="3">
+        <v>265</v>
+      </c>
+      <c r="H146" s="6">
+        <v>0</v>
+      </c>
+      <c r="I146" s="6">
+        <v>15</v>
+      </c>
+      <c r="J146" s="3">
+        <v>397.5</v>
+      </c>
+      <c r="K146" s="13">
+        <v>3047.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="4">
+        <v>10</v>
+      </c>
+      <c r="G147" s="6">
+        <v>368</v>
+      </c>
+      <c r="H147" s="6">
+        <v>0</v>
+      </c>
+      <c r="I147" s="6">
+        <v>15</v>
+      </c>
+      <c r="J147" s="6">
+        <v>552</v>
+      </c>
+      <c r="K147" s="7">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="10">
+        <v>5</v>
+      </c>
+      <c r="G148" s="3">
+        <v>440</v>
+      </c>
+      <c r="H148" s="6">
+        <v>0</v>
+      </c>
+      <c r="I148" s="6">
+        <v>15</v>
+      </c>
+      <c r="J148" s="3">
+        <v>330</v>
+      </c>
+      <c r="K148" s="13">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" s="4">
+        <v>10</v>
+      </c>
+      <c r="G149" s="6">
+        <v>72</v>
+      </c>
+      <c r="H149" s="6">
+        <v>0</v>
+      </c>
+      <c r="I149" s="6">
+        <v>15</v>
+      </c>
+      <c r="J149" s="6">
+        <v>108</v>
+      </c>
+      <c r="K149" s="7">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" s="10">
+        <v>10</v>
+      </c>
+      <c r="G150" s="3">
+        <v>112</v>
+      </c>
+      <c r="H150" s="6">
+        <v>0</v>
+      </c>
+      <c r="I150" s="6">
+        <v>15</v>
+      </c>
+      <c r="J150" s="3">
+        <v>168</v>
+      </c>
+      <c r="K150" s="13">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="4">
+        <v>25</v>
+      </c>
+      <c r="G151" s="6">
+        <v>160</v>
+      </c>
+      <c r="H151" s="6">
+        <v>0</v>
+      </c>
+      <c r="I151" s="6">
+        <v>15</v>
+      </c>
+      <c r="J151" s="6">
+        <v>600</v>
+      </c>
+      <c r="K151" s="7">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="10">
+        <v>25</v>
+      </c>
+      <c r="G152" s="3">
+        <v>168</v>
+      </c>
+      <c r="H152" s="6">
+        <v>0</v>
+      </c>
+      <c r="I152" s="6">
+        <v>15</v>
+      </c>
+      <c r="J152" s="3">
+        <v>630</v>
+      </c>
+      <c r="K152" s="13">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" s="4">
+        <v>20</v>
+      </c>
+      <c r="G153" s="6">
+        <v>208</v>
+      </c>
+      <c r="H153" s="6">
+        <v>0</v>
+      </c>
+      <c r="I153" s="6">
+        <v>15</v>
+      </c>
+      <c r="J153" s="6">
+        <v>624</v>
+      </c>
+      <c r="K153" s="7">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F154" s="10">
+        <v>20</v>
+      </c>
+      <c r="G154" s="3">
+        <v>221</v>
+      </c>
+      <c r="H154" s="6">
+        <v>0</v>
+      </c>
+      <c r="I154" s="6">
+        <v>15</v>
+      </c>
+      <c r="J154" s="3">
+        <v>663</v>
+      </c>
+      <c r="K154" s="13">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="4">
+        <v>5</v>
+      </c>
+      <c r="G155" s="6">
+        <v>410</v>
+      </c>
+      <c r="H155" s="6">
+        <v>0</v>
+      </c>
+      <c r="I155" s="6">
+        <v>15</v>
+      </c>
+      <c r="J155" s="6">
+        <v>307.5</v>
+      </c>
+      <c r="K155" s="7">
+        <v>2357.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="10">
+        <v>5</v>
+      </c>
+      <c r="G156" s="3">
+        <v>158</v>
+      </c>
+      <c r="H156" s="6">
+        <v>0</v>
+      </c>
+      <c r="I156" s="6">
+        <v>15</v>
+      </c>
+      <c r="J156" s="3">
+        <v>118.5</v>
+      </c>
+      <c r="K156" s="13">
+        <v>908.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" s="4">
+        <v>5</v>
+      </c>
+      <c r="G157" s="6">
+        <v>215</v>
+      </c>
+      <c r="H157" s="6">
+        <v>0</v>
+      </c>
+      <c r="I157" s="6">
+        <v>15</v>
+      </c>
+      <c r="J157" s="6">
+        <v>161.25</v>
+      </c>
+      <c r="K157" s="7">
+        <v>1236.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="10">
+        <v>5</v>
+      </c>
+      <c r="G158" s="3">
+        <v>280</v>
+      </c>
+      <c r="H158" s="6">
+        <v>0</v>
+      </c>
+      <c r="I158" s="6">
+        <v>15</v>
+      </c>
+      <c r="J158" s="3">
+        <v>210</v>
+      </c>
+      <c r="K158" s="13">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F159" s="4">
+        <v>25</v>
+      </c>
+      <c r="G159" s="6">
+        <v>94.5</v>
+      </c>
+      <c r="H159" s="6">
+        <v>0</v>
+      </c>
+      <c r="I159" s="6">
+        <v>15</v>
+      </c>
+      <c r="J159" s="6">
+        <v>354.38</v>
+      </c>
+      <c r="K159" s="7">
+        <v>2716.88</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" s="10">
+        <v>20</v>
+      </c>
+      <c r="G160" s="3">
+        <v>40</v>
+      </c>
+      <c r="H160" s="6">
+        <v>0</v>
+      </c>
+      <c r="I160" s="6">
+        <v>15</v>
+      </c>
+      <c r="J160" s="3">
+        <v>120</v>
+      </c>
+      <c r="K160" s="13">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" s="4">
+        <v>50</v>
+      </c>
+      <c r="G161" s="6">
+        <v>48</v>
+      </c>
+      <c r="H161" s="6">
+        <v>0</v>
+      </c>
+      <c r="I161" s="6">
+        <v>15</v>
+      </c>
+      <c r="J161" s="6">
+        <v>360</v>
+      </c>
+      <c r="K161" s="7">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="10">
+        <v>10</v>
+      </c>
+      <c r="G162" s="3">
+        <v>48</v>
+      </c>
+      <c r="H162" s="6">
+        <v>0</v>
+      </c>
+      <c r="I162" s="6">
+        <v>15</v>
+      </c>
+      <c r="J162" s="3">
+        <v>72</v>
+      </c>
+      <c r="K162" s="13">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" s="4">
+        <v>2</v>
+      </c>
+      <c r="G163" s="6">
+        <v>63</v>
+      </c>
+      <c r="H163" s="6">
+        <v>0</v>
+      </c>
+      <c r="I163" s="6">
+        <v>15</v>
+      </c>
+      <c r="J163" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K163" s="7">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="10">
+        <v>2</v>
+      </c>
+      <c r="G164" s="3">
+        <v>68</v>
+      </c>
+      <c r="H164" s="6">
+        <v>0</v>
+      </c>
+      <c r="I164" s="6">
+        <v>15</v>
+      </c>
+      <c r="J164" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K164" s="13">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" s="4">
+        <v>2</v>
+      </c>
+      <c r="G165" s="6">
+        <v>73</v>
+      </c>
+      <c r="H165" s="6">
+        <v>0</v>
+      </c>
+      <c r="I165" s="6">
+        <v>15</v>
+      </c>
+      <c r="J165" s="6">
+        <v>21.9</v>
+      </c>
+      <c r="K165" s="7">
+        <v>167.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" s="10">
+        <v>2</v>
+      </c>
+      <c r="G166" s="3">
+        <v>75</v>
+      </c>
+      <c r="H166" s="6">
+        <v>0</v>
+      </c>
+      <c r="I166" s="6">
+        <v>15</v>
+      </c>
+      <c r="J166" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="K166" s="13">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" s="4">
+        <v>2</v>
+      </c>
+      <c r="G167" s="6">
+        <v>120</v>
+      </c>
+      <c r="H167" s="6">
+        <v>0</v>
+      </c>
+      <c r="I167" s="6">
+        <v>15</v>
+      </c>
+      <c r="J167" s="6">
+        <v>36</v>
+      </c>
+      <c r="K167" s="7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" s="10">
+        <v>2</v>
+      </c>
+      <c r="G168" s="3">
+        <v>44</v>
+      </c>
+      <c r="H168" s="6">
+        <v>0</v>
+      </c>
+      <c r="I168" s="6">
+        <v>15</v>
+      </c>
+      <c r="J168" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="K168" s="13">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="4">
+        <v>2</v>
+      </c>
+      <c r="G169" s="6">
+        <v>45</v>
+      </c>
+      <c r="H169" s="6">
+        <v>0</v>
+      </c>
+      <c r="I169" s="6">
+        <v>15</v>
+      </c>
+      <c r="J169" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="K169" s="7">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" s="10">
+        <v>2</v>
+      </c>
+      <c r="G170" s="3">
+        <v>90</v>
+      </c>
+      <c r="H170" s="6">
+        <v>0</v>
+      </c>
+      <c r="I170" s="6">
+        <v>15</v>
+      </c>
+      <c r="J170" s="3">
+        <v>27</v>
+      </c>
+      <c r="K170" s="13">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" s="4">
+        <v>2</v>
+      </c>
+      <c r="G171" s="6">
+        <v>47</v>
+      </c>
+      <c r="H171" s="6">
+        <v>0</v>
+      </c>
+      <c r="I171" s="6">
+        <v>15</v>
+      </c>
+      <c r="J171" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="K171" s="7">
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="10">
+        <v>2</v>
+      </c>
+      <c r="G172" s="3">
+        <v>80</v>
+      </c>
+      <c r="H172" s="6">
+        <v>0</v>
+      </c>
+      <c r="I172" s="6">
+        <v>15</v>
+      </c>
+      <c r="J172" s="3">
+        <v>24</v>
+      </c>
+      <c r="K172" s="13">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" s="4">
+        <v>10</v>
+      </c>
+      <c r="G173" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H173" s="6">
+        <v>0</v>
+      </c>
+      <c r="I173" s="6">
+        <v>15</v>
+      </c>
+      <c r="J173" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="K173" s="7">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="10">
+        <v>10</v>
+      </c>
+      <c r="G174" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="H174" s="6">
+        <v>0</v>
+      </c>
+      <c r="I174" s="6">
+        <v>15</v>
+      </c>
+      <c r="J174" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K174" s="13">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="4">
+        <v>10</v>
+      </c>
+      <c r="G175" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="H175" s="6">
+        <v>0</v>
+      </c>
+      <c r="I175" s="6">
+        <v>15</v>
+      </c>
+      <c r="J175" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="K175" s="7">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" s="10">
+        <v>10</v>
+      </c>
+      <c r="G176" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H176" s="6">
+        <v>0</v>
+      </c>
+      <c r="I176" s="6">
+        <v>15</v>
+      </c>
+      <c r="J176" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="K176" s="13">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="4">
+        <v>10</v>
+      </c>
+      <c r="G177" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="H177" s="6">
+        <v>0</v>
+      </c>
+      <c r="I177" s="6">
+        <v>15</v>
+      </c>
+      <c r="J177" s="6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="K177" s="7">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" s="10">
+        <v>10</v>
+      </c>
+      <c r="G178" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="H178" s="6">
+        <v>0</v>
+      </c>
+      <c r="I178" s="6">
+        <v>15</v>
+      </c>
+      <c r="J178" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K178" s="13">
+        <v>35.65</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" s="4">
+        <v>5</v>
+      </c>
+      <c r="G179" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="H179" s="6">
+        <v>0</v>
+      </c>
+      <c r="I179" s="6">
+        <v>15</v>
+      </c>
+      <c r="J179" s="6">
+        <v>4.13</v>
+      </c>
+      <c r="K179" s="7">
+        <v>31.63</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="10">
+        <v>5</v>
+      </c>
+      <c r="G180" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="H180" s="6">
+        <v>0</v>
+      </c>
+      <c r="I180" s="6">
+        <v>15</v>
+      </c>
+      <c r="J180" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="K180" s="13">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="4">
+        <v>5</v>
+      </c>
+      <c r="G181" s="6">
+        <v>7</v>
+      </c>
+      <c r="H181" s="6">
+        <v>0</v>
+      </c>
+      <c r="I181" s="6">
+        <v>15</v>
+      </c>
+      <c r="J181" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="K181" s="7">
+        <v>40.25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" s="10">
+        <v>5</v>
+      </c>
+      <c r="G182" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="H182" s="6">
+        <v>0</v>
+      </c>
+      <c r="I182" s="6">
+        <v>15</v>
+      </c>
+      <c r="J182" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K182" s="13">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" s="4">
+        <v>5</v>
+      </c>
+      <c r="G183" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="H183" s="6">
+        <v>0</v>
+      </c>
+      <c r="I183" s="6">
+        <v>15</v>
+      </c>
+      <c r="J183" s="6">
+        <v>5.55</v>
+      </c>
+      <c r="K183" s="7">
+        <v>42.55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="10">
+        <v>5</v>
+      </c>
+      <c r="G184" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="H184" s="6">
+        <v>0</v>
+      </c>
+      <c r="I184" s="6">
+        <v>15</v>
+      </c>
+      <c r="J184" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="K184" s="13">
+        <v>44.85</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" s="4">
+        <v>5</v>
+      </c>
+      <c r="G185" s="6">
+        <v>10.25</v>
+      </c>
+      <c r="H185" s="6">
+        <v>0</v>
+      </c>
+      <c r="I185" s="6">
+        <v>15</v>
+      </c>
+      <c r="J185" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="K185" s="7">
+        <v>58.94</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E186" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" s="10">
+        <v>5</v>
+      </c>
+      <c r="G186" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="H186" s="6">
+        <v>0</v>
+      </c>
+      <c r="I186" s="6">
+        <v>15</v>
+      </c>
+      <c r="J186" s="3">
+        <v>7.88</v>
+      </c>
+      <c r="K186" s="13">
+        <v>60.38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E187" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" s="4">
+        <v>5</v>
+      </c>
+      <c r="G187" s="6">
+        <v>11</v>
+      </c>
+      <c r="H187" s="6">
+        <v>0</v>
+      </c>
+      <c r="I187" s="6">
+        <v>15</v>
+      </c>
+      <c r="J187" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="K187" s="7">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" s="10">
+        <v>5</v>
+      </c>
+      <c r="G188" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="H188" s="6">
+        <v>0</v>
+      </c>
+      <c r="I188" s="6">
+        <v>15</v>
+      </c>
+      <c r="J188" s="3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="K188" s="13">
+        <v>66.13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" s="4">
+        <v>5</v>
+      </c>
+      <c r="G189" s="6">
+        <v>12.25</v>
+      </c>
+      <c r="H189" s="6">
+        <v>0</v>
+      </c>
+      <c r="I189" s="6">
+        <v>15</v>
+      </c>
+      <c r="J189" s="6">
+        <v>9.19</v>
+      </c>
+      <c r="K189" s="7">
+        <v>70.44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" s="10">
+        <v>5</v>
+      </c>
+      <c r="G190" s="3">
+        <v>13</v>
+      </c>
+      <c r="H190" s="6">
+        <v>0</v>
+      </c>
+      <c r="I190" s="6">
+        <v>15</v>
+      </c>
+      <c r="J190" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="K190" s="13">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" s="4">
+        <v>6</v>
+      </c>
+      <c r="G191" s="6">
+        <v>26</v>
+      </c>
+      <c r="H191" s="6">
+        <v>0</v>
+      </c>
+      <c r="I191" s="6">
+        <v>15</v>
+      </c>
+      <c r="J191" s="6">
+        <v>23.4</v>
+      </c>
+      <c r="K191" s="7">
+        <v>179.4</v>
       </c>
     </row>
   </sheetData>
